--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\eclipse-workspace\ANTS_Project\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5AE2AF-CD6E-40CD-8D08-1DBFF1FD215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2B50F-23A4-478B-9127-621613E33BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="1" activeTab="3" xr2:uid="{7A2DE832-2EC7-4B98-998A-519C5BCB1BF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="1" activeTab="4" xr2:uid="{7A2DE832-2EC7-4B98-998A-519C5BCB1BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="p_getassets" sheetId="8" r:id="rId1"/>
@@ -173,10 +173,10 @@
     <t>timeDiff</t>
   </si>
   <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>astcode_123</t>
+    <t>133</t>
+  </si>
+  <si>
+    <t>astcode_125</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/resource/testdata.xlsx
+++ b/resource/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\eclipse-workspace\ANTS_Project\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2B50F-23A4-478B-9127-621613E33BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA8DE28-DA27-47A8-86F3-6F4C6CB8BD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="1" activeTab="4" xr2:uid="{7A2DE832-2EC7-4B98-998A-519C5BCB1BF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="705" firstSheet="1" activeTab="3" xr2:uid="{7A2DE832-2EC7-4B98-998A-519C5BCB1BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="p_getassets" sheetId="8" r:id="rId1"/>
@@ -173,10 +173,10 @@
     <t>timeDiff</t>
   </si>
   <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>astcode_125</t>
+    <t>134</t>
+  </si>
+  <si>
+    <t>astcode_126</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
